--- a/English .xlsx
+++ b/English .xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\202x\2025\Python\ProjectEuler\cc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\202x\2025\Python\ProjectEuler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EB32670-CD9E-4A04-B86C-5FAE127BCF08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C83CA03-594D-441E-A658-8D44A5636094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="АБВГД" sheetId="1" r:id="rId1"/>
@@ -39,6 +39,9 @@
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
@@ -47,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="168">
   <si>
     <t>вітати</t>
   </si>
@@ -521,6 +524,36 @@
   </si>
   <si>
     <t>van</t>
+  </si>
+  <si>
+    <t>попереду</t>
+  </si>
+  <si>
+    <t>ahead</t>
+  </si>
+  <si>
+    <t>досить</t>
+  </si>
+  <si>
+    <t>fairly</t>
+  </si>
+  <si>
+    <t>пробачити</t>
+  </si>
+  <si>
+    <t>forgive</t>
+  </si>
+  <si>
+    <t>коханий</t>
+  </si>
+  <si>
+    <t>darling</t>
+  </si>
+  <si>
+    <t>вижити</t>
+  </si>
+  <si>
+    <t>survive</t>
   </si>
 </sst>
 </file>
@@ -796,10 +829,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="15" customHeight="1"/>
@@ -994,6 +1027,22 @@
       </c>
       <c r="B22" s="6" t="s">
         <v>140</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15" customHeight="1">
+      <c r="A23" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15" customHeight="1">
+      <c r="A24" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -1108,10 +1157,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="15" customHeight="1"/>
@@ -1206,6 +1255,14 @@
         <v>155</v>
       </c>
     </row>
+    <row r="11" spans="1:4" ht="15" customHeight="1">
+      <c r="A11" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>165</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:D6" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1215,10 +1272,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="15" customHeight="1"/>
@@ -1446,6 +1503,22 @@
       </c>
       <c r="B25" s="6" t="s">
         <v>136</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15" customHeight="1">
+      <c r="A26" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15" customHeight="1">
+      <c r="A27" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -1463,7 +1536,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>

--- a/English .xlsx
+++ b/English .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\202x\2025\Python\ProjectEuler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C83CA03-594D-441E-A658-8D44A5636094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B71AEF19-F5E4-4C1C-B74E-77779ACCF137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="АБВГД" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="173">
   <si>
     <t>вітати</t>
   </si>
@@ -554,6 +554,21 @@
   </si>
   <si>
     <t>survive</t>
+  </si>
+  <si>
+    <t>зловити</t>
+  </si>
+  <si>
+    <t>catch</t>
+  </si>
+  <si>
+    <t>ніяково</t>
+  </si>
+  <si>
+    <t>embarrassing</t>
+  </si>
+  <si>
+    <t>необхідний</t>
   </si>
 </sst>
 </file>
@@ -831,7 +846,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
@@ -1058,10 +1073,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="15" customHeight="1"/>
@@ -1145,6 +1160,22 @@
         <v>152</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15" customHeight="1">
+      <c r="A10" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15" customHeight="1">
+      <c r="A11" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>153</v>
       </c>
     </row>
@@ -1272,10 +1303,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="15" customHeight="1"/>
@@ -1519,6 +1550,22 @@
       </c>
       <c r="B27" s="6" t="s">
         <v>163</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15" customHeight="1">
+      <c r="A28" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15" customHeight="1">
+      <c r="A29" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/English .xlsx
+++ b/English .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\202x\2025\Python\ProjectEuler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B71AEF19-F5E4-4C1C-B74E-77779ACCF137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03004E5B-4D75-4EC7-ABD0-4B8BF8FB8593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="175">
   <si>
     <t>вітати</t>
   </si>
@@ -569,6 +569,12 @@
   </si>
   <si>
     <t>необхідний</t>
+  </si>
+  <si>
+    <t>послідовний</t>
+  </si>
+  <si>
+    <t xml:space="preserve">consecutive </t>
   </si>
 </sst>
 </file>
@@ -1303,10 +1309,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="15" customHeight="1"/>
@@ -1566,6 +1572,14 @@
       </c>
       <c r="B29" s="6" t="s">
         <v>147</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15" customHeight="1">
+      <c r="A30" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/English .xlsx
+++ b/English .xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\202x\2025\Python\ProjectEuler\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Viktor Demchenko\Downloads\oLd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03004E5B-4D75-4EC7-ABD0-4B8BF8FB8593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA6AEA35-2877-4966-A059-AE9A3705C18D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="АБВГД" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="179">
   <si>
     <t>вітати</t>
   </si>
@@ -575,6 +575,18 @@
   </si>
   <si>
     <t xml:space="preserve">consecutive </t>
+  </si>
+  <si>
+    <t>страшний</t>
+  </si>
+  <si>
+    <t>scary</t>
+  </si>
+  <si>
+    <t>землетрус</t>
+  </si>
+  <si>
+    <t>earthquake</t>
   </si>
 </sst>
 </file>
@@ -1311,7 +1323,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
@@ -1595,10 +1607,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="15" customHeight="1"/>
@@ -1716,6 +1728,22 @@
       </c>
       <c r="B12" s="6" t="s">
         <v>157</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15" customHeight="1">
+      <c r="A13" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15" customHeight="1">
+      <c r="A14" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>
